--- a/medicine/Enfance/Thierry_Chapeau/Thierry_Chapeau.xlsx
+++ b/medicine/Enfance/Thierry_Chapeau/Thierry_Chapeau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Thierry Chapeau, né le 29 août 1969 à Ris-Orangis (Essonne)[1], est un auteur français de jeux de société et illustrateur de livres jeunesse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thierry Chapeau, né le 29 août 1969 à Ris-Orangis (Essonne), est un auteur français de jeux de société et illustrateur de livres jeunesse.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après avoir suivi les cours de l'École supérieure d'arts graphiques Penninghen à Paris, il se spécialise dans l'illustration à l'École supérieure des arts décoratifs de Strasbourg.
 </t>
@@ -544,20 +558,59 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ludographie
-Quixo, 1994, Gigamic
+          <t>Ludographie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Quixo, 1994, Gigamic
 Splash attack, 2004, Gigamic, As d'or Jeu de l'année  enfants 2006
 Pliajeux
 Le jeu du libraire, 2007, Callicéphale
 Piou Piou, 2009, [Djeco]
-Rök, 2009, Gigamic, Chamboultou d'or 2009[2]
+Rök, 2009, Gigamic, Chamboultou d'or 2009
 Putz die Wutz, 2014, Zoch
 Särge Schubsen, 2014, Drei Magier
 Kuhno, 2016, Zoch
 Kakerlaken Sushi, 2019, Drei Magier
-Räuber Raupe, 2019, Drei Magier
-Album
-Légendes de l'Alsace mystérieuse : Nains et géants, 1997 Bastberg (textes de Hermann-Joseph Troxler)
+Räuber Raupe, 2019, Drei Magier</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Thierry_Chapeau</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Thierry_Chapeau</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Album</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Légendes de l'Alsace mystérieuse : Nains et géants, 1997 Bastberg (textes de Hermann-Joseph Troxler)
 Sorcières, 1998 Bastberg (textes de Hermann-Joseph Troxler)
 Touche pas à mon loup, 1998 Bastberg (textes d'Alain Surget)
 Mes premiers contes d'Alsace, 1999 Bastberg (textes de Sylvain Thomassin, Hermann-Joseph Troxler, et Thierry Chapeau)
@@ -573,9 +626,43 @@
 Les Oiseaux du Marché de Noël, 2005 Bastberg (textes de Yannick Lefrançois)
 Le Turban du sultan, 2005 Callicéphale (textes de Rachid Madani)
 La Légende du sapin, 2006 Bastberg (textes de Thierry Chapeau)
-Sushi, 2019, Callicéphale
-Kamishibaï
-Un Kamishibaï est un théâtre d'images d'origine japonaise.
+Sushi, 2019, Callicéphale</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Thierry_Chapeau</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Thierry_Chapeau</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Kamishibaï</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Un Kamishibaï est un théâtre d'images d'origine japonaise.
 L'étoffe d'un roi, 2000 Callicéphale (textes de Thierry Chapeau)
 Ambre, 2001 Callicéphale
 Le turban du sultan, 2005 Callicéphale
@@ -588,31 +675,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Thierry_Chapeau</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Thierry_Chapeau</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Travaux décoratifs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Thierry Chapeau participe depuis sa toute première édition, en 2005 au Festival imaginaire à Schirmeck. Aidé de Yannick Lefrançois, ils créent à l'approche des fêtes de fin d'année des décors inspirés des légendes populaires alsaciennes liées à Noël, à ces traditions ainsi qu'à leur imaginaire personnel pour décorer la ville, les rues, les places, et les vitrines.
 Ces décors servent de cadre à ce festival qui anime la ville tout au long de l'hiver à travers plusieurs manifestations. (Salon du livre, représentations théâtrales, lectures de contes, marches aux flambeaux…)
